--- a/biology/Botanique/Simaroubaceae/Simaroubaceae.xlsx
+++ b/biology/Botanique/Simaroubaceae/Simaroubaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Simaroubaceae (Simaroubacées) regroupe des plantes dicotylédones. Sa circonscription est très discutée. Selon Watson &amp; Dallwitz elle comprend 50 espèces réparties en une vingtaine de genres.
 Ce sont des arbustes et des arbres, aux terpénoïdes caractéristiques, des régions subtropicales à tropicales largement répandus.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] a détaché la famille des Picramniaceae des Simaroubaceae, et la classification phylogénétique APG III (2009)[2] lui a attribué le nouvel ordre des Picramniales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) a détaché la famille des Picramniaceae des Simaroubaceae, et la classification phylogénétique APG III (2009) lui a attribué le nouvel ordre des Picramniales.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Simarouba qui lui-même vient de la langue kali'na et signifie « racine contre la dysenterie »[3].
-Les Kali'na, ethnie amérindienne d'Amérique du Sud, ont nommé Simarouba un arbre qui vit dans les lieux sablonneux et humides. Par la suite cet arbre a été scientifiquement nommé Simarouba amara. Sa racine est regardée comme spécifique contre la dysenterie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Simarouba qui lui-même vient de la langue kali'na et signifie « racine contre la dysenterie ».
+Les Kali'na, ethnie amérindienne d'Amérique du Sud, ont nommé Simarouba un arbre qui vit dans les lieux sablonneux et humides. Par la suite cet arbre a été scientifiquement nommé Simarouba amara. Sa racine est regardée comme spécifique contre la dysenterie.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 juin 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 juin 2010) :
 genre Ailanthus
 genre Amaroria
 genre Brucea
@@ -598,7 +616,7 @@
 genre Simaba
 genre Simarouba
 genre Soulamea
-Selon NCBI  (24 juin 2010)[6] :
+Selon NCBI  (24 juin 2010) :
 genre Ailanthus
 genre Amaroria
 genre Brucea
@@ -620,7 +638,7 @@
 genre Simaba
 genre Simarouba
 genre Soulamea
-Selon DELTA Angio           (24 juin 2010)[7] :
+Selon DELTA Angio           (24 juin 2010) :
 genre Ailanthus
 genre Amaroria
 genre Brucea
@@ -640,7 +658,7 @@
 genre Simaba
 genre Simarouba
 genre Soulamea
-Selon ITIS      (24 juin 2010)[8] :
+Selon ITIS      (24 juin 2010) :
 genre Ailanthus Desf.
 genre Alvaradoa Liebm.
 genre Castela Turp.
@@ -678,9 +696,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (24 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (24 juin 2010) :
 genre Ailanthus
 Ailanthus altissima
 Ailanthus fordii
